--- a/Writesheet.xlsx
+++ b/Writesheet.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="41">
   <si>
     <t>Project</t>
   </si>
@@ -23,10 +23,118 @@
     <t>Entity</t>
   </si>
   <si>
-    <t>NAME</t>
+    <t>SysName</t>
+  </si>
+  <si>
+    <t>Name</t>
   </si>
   <si>
     <t>Description</t>
+  </si>
+  <si>
+    <t>PRJ-1</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>With AR, HL</t>
+  </si>
+  <si>
+    <t>3 plate sets with 2 96 well plates each</t>
+  </si>
+  <si>
+    <t>PS-1</t>
+  </si>
+  <si>
+    <t>AssayRun</t>
+  </si>
+  <si>
+    <t>AR-1</t>
+  </si>
+  <si>
+    <t>assay_run1</t>
+  </si>
+  <si>
+    <t>PS-1 LYT-1;96;4in12</t>
+  </si>
+  <si>
+    <t>2 96 well plates</t>
+  </si>
+  <si>
+    <t>with AR (low values), HL</t>
+  </si>
+  <si>
+    <t>PS-2</t>
+  </si>
+  <si>
+    <t>AR-2</t>
+  </si>
+  <si>
+    <t>assay_run2</t>
+  </si>
+  <si>
+    <t>PS-2 LYT-1/;96/;4in12</t>
+  </si>
+  <si>
+    <t>PS-3</t>
+  </si>
+  <si>
+    <t>AR-3</t>
+  </si>
+  <si>
+    <t>assay_run3</t>
+  </si>
+  <si>
+    <t>PS-3 LYT-1/;96/;4in12</t>
+  </si>
+  <si>
+    <t>with AR (high values), HL</t>
+  </si>
+  <si>
+    <t>PRJ-2</t>
+  </si>
+  <si>
+    <t>With AR</t>
+  </si>
+  <si>
+    <t>1 plate set with 2 384 well plates each</t>
+  </si>
+  <si>
+    <t>PS-4</t>
+  </si>
+  <si>
+    <t>AR-4</t>
+  </si>
+  <si>
+    <t>assay_run4</t>
+  </si>
+  <si>
+    <t>PS-4 LYT-13/;384/;8in24</t>
+  </si>
+  <si>
+    <t>2 384 well plates</t>
+  </si>
+  <si>
+    <t>PRJ-3</t>
+  </si>
+  <si>
+    <t>1 plate set with 1 1536 well plate</t>
+  </si>
+  <si>
+    <t>PS-5</t>
+  </si>
+  <si>
+    <t>AR-5</t>
+  </si>
+  <si>
+    <t>assay_run5</t>
+  </si>
+  <si>
+    <t>PS-5 LYT-37/;1536/;32in47,48</t>
+  </si>
+  <si>
+    <t>1 1536 well plate</t>
   </si>
 </sst>
 </file>
@@ -71,7 +179,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -93,6 +201,269 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" t="s">
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
